--- a/data/covid.xlsx
+++ b/data/covid.xlsx
@@ -927,37 +927,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G2">
         <v>4</v>
       </c>
       <c r="H2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>15.65923170646995</v>
+        <v>14.33691645558327</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1003,13 +1003,13 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1021,19 +1021,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="K4">
         <v>-1</v>
       </c>
       <c r="L4">
-        <v>3.080688415717164</v>
+        <v>3.420824470138933</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1041,13 +1041,13 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>2.283830198746165</v>
+        <v>2.01530173472898</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1079,37 +1079,37 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="C6">
         <v>6</v>
       </c>
       <c r="D6">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>66</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
         <v>4</v>
       </c>
-      <c r="H6">
-        <v>61</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>11</v>
-      </c>
       <c r="K6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>9.554210654553611</v>
+        <v>5.908198330535749</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1123,31 +1123,31 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.490310226654764</v>
+        <v>5.600387590933809</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1155,22 +1155,22 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <v>60</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>24</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>36</v>
@@ -1182,10 +1182,10 @@
         <v>-12</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>5.263518289672597</v>
+        <v>4.567772574131818</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1193,37 +1193,37 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E9">
         <v>13</v>
       </c>
       <c r="F9">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H9">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="L9">
-        <v>2.059092243106383</v>
+        <v>1.852952762175673</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1231,7 +1231,7 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1243,25 +1243,25 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.246382898638537</v>
+        <v>7.168053015960829</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1269,7 +1269,7 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1281,25 +1281,25 @@
         <v>0</v>
       </c>
       <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>6</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>4</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>2</v>
-      </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.806122448979592</v>
+        <v>6.407312925170068</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1307,37 +1307,37 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>247</v>
+        <v>292</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D12">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F12">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H12">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12">
-        <v>-77</v>
+        <v>-31</v>
       </c>
       <c r="K12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>10.45610710356232</v>
+        <v>8.318149784819445</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1345,37 +1345,37 @@
         <v>23</v>
       </c>
       <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>9</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>8</v>
-      </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>23.94557823129252</v>
+        <v>12.04081632653061</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1383,37 +1383,37 @@
         <v>24</v>
       </c>
       <c r="B14">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="K14">
         <v>-1</v>
       </c>
       <c r="L14">
-        <v>7.53531117391135</v>
+        <v>3.357048959934851</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1421,37 +1421,37 @@
         <v>25</v>
       </c>
       <c r="B15">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C15">
         <v>6</v>
       </c>
       <c r="D15">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E15">
         <v>5</v>
       </c>
       <c r="F15">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
+        <v>13</v>
+      </c>
+      <c r="I15">
         <v>5</v>
       </c>
-      <c r="I15">
-        <v>4</v>
-      </c>
       <c r="J15">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K15">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="L15">
-        <v>5.737347881839542</v>
+        <v>7.385217556025006</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1459,19 +1459,19 @@
         <v>26</v>
       </c>
       <c r="B16">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1480,16 +1480,16 @@
         <v>4</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>3.607484991906749</v>
+        <v>3.810774304697162</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1503,31 +1503,31 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>-4</v>
+        <v>-10</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L17">
-        <v>5.149791517735435</v>
+        <v>3.221686942572035</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1535,37 +1535,37 @@
         <v>28</v>
       </c>
       <c r="B18">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
       <c r="D18">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L18">
-        <v>7.221124843057721</v>
+        <v>7.546453438004023</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1573,37 +1573,37 @@
         <v>29</v>
       </c>
       <c r="B19">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="G19">
         <v>2</v>
       </c>
       <c r="H19">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>12.41566822921687</v>
+        <v>11.05870521412578</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1611,37 +1611,37 @@
         <v>30</v>
       </c>
       <c r="B20">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>13</v>
+        <v>-6</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>4.938985154496093</v>
+        <v>3.468863765546208</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1649,37 +1649,37 @@
         <v>31</v>
       </c>
       <c r="B21">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21">
-        <v>2.124000338286052</v>
+        <v>1.882812954241526</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1699,25 +1699,25 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>4.642857142857143</v>
+        <v>4.770408163265306</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1725,37 +1725,37 @@
         <v>33</v>
       </c>
       <c r="B23">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="C23">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F23">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
       <c r="H23">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J23">
-        <v>-13</v>
+        <v>-31</v>
       </c>
       <c r="K23">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="L23">
-        <v>3.205390649861337</v>
+        <v>2.52916748554001</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1769,31 +1769,31 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.36390382005058</v>
+        <v>8.31262176876853</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1801,7 +1801,7 @@
         <v>35</v>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.785714285714286</v>
+        <v>4.532312925170068</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1839,37 +1839,37 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D26">
         <v>60</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
+        <v>32</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
         <v>28</v>
       </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>32</v>
-      </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>2.404643101850243</v>
+        <v>2.217847590117896</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1877,37 +1877,37 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>7.806122448979592</v>
+        <v>6.119614512471656</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1915,37 +1915,37 @@
         <v>38</v>
       </c>
       <c r="B28">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
+        <v>6</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
         <v>4</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>3</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>4.719903112760256</v>
+        <v>4.376496519353663</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1953,37 +1953,37 @@
         <v>39</v>
       </c>
       <c r="B29">
-        <v>368</v>
+        <v>436</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D29">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>112</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>105</v>
+      </c>
+      <c r="I29">
         <v>3</v>
       </c>
-      <c r="F29">
-        <v>83</v>
-      </c>
-      <c r="G29">
-        <v>2</v>
-      </c>
-      <c r="H29">
-        <v>99</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
       <c r="J29">
-        <v>-16</v>
+        <v>7</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="L29">
-        <v>5.006026345835358</v>
+        <v>4.668326430591331</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1991,37 +1991,37 @@
         <v>40</v>
       </c>
       <c r="B30">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="C30">
         <v>13</v>
       </c>
       <c r="D30">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30">
+        <v>26</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>21</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>24</v>
-      </c>
       <c r="I30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="K30">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="L30">
-        <v>3.02736453562256</v>
+        <v>2.457023969312497</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2029,7 +2029,7 @@
         <v>41</v>
       </c>
       <c r="B31">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -2041,25 +2041,25 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="K31">
         <v>-1</v>
       </c>
       <c r="L31">
-        <v>1.662704555506413</v>
+        <v>1.573418841220699</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2067,37 +2067,37 @@
         <v>42</v>
       </c>
       <c r="B32">
-        <v>642</v>
+        <v>672</v>
       </c>
       <c r="C32">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D32">
-        <v>303</v>
+        <v>237</v>
       </c>
       <c r="E32">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F32">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="G32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H32">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="I32">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J32">
-        <v>-29</v>
+        <v>13</v>
       </c>
       <c r="K32">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="L32">
-        <v>4.031909120225297</v>
+        <v>2.755423841089007</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2105,37 +2105,37 @@
         <v>43</v>
       </c>
       <c r="B33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>8.333333333333334</v>
+        <v>1.020408163265306</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2143,37 +2143,37 @@
         <v>44</v>
       </c>
       <c r="B34">
-        <v>1395</v>
+        <v>1539</v>
       </c>
       <c r="C34">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D34">
-        <v>690</v>
+        <v>644</v>
       </c>
       <c r="E34">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F34">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="G34">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H34">
-        <v>399</v>
+        <v>335</v>
       </c>
       <c r="I34">
         <v>19</v>
       </c>
       <c r="J34">
-        <v>-108</v>
+        <v>-26</v>
       </c>
       <c r="K34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>4.80107329066383</v>
+        <v>3.520982251221846</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2181,37 +2181,37 @@
         <v>45</v>
       </c>
       <c r="B35">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="C35">
         <v>4</v>
       </c>
       <c r="D35">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L35">
-        <v>4.240433988520834</v>
+        <v>4.603604403329884</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2219,37 +2219,37 @@
         <v>46</v>
       </c>
       <c r="B36">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="C36">
         <v>6</v>
       </c>
       <c r="D36">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36">
-        <v>9</v>
+        <v>-44</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L36">
-        <v>4.820253490523562</v>
+        <v>5.211070238597729</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2257,37 +2257,37 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37">
-        <v>6</v>
+        <v>-20</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L37">
-        <v>5.150504204015307</v>
+        <v>4.716863093475852</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2295,19 +2295,19 @@
         <v>48</v>
       </c>
       <c r="B38">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2319,13 +2319,13 @@
         <v>1</v>
       </c>
       <c r="J38">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="K38">
         <v>-1</v>
       </c>
       <c r="L38">
-        <v>6.447798233512519</v>
+        <v>6.11391468009115</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2333,37 +2333,37 @@
         <v>49</v>
       </c>
       <c r="B39">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C39">
         <v>4</v>
       </c>
       <c r="D39">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="E39">
         <v>2</v>
       </c>
       <c r="F39">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39">
-        <v>-32</v>
+        <v>-10</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L39">
-        <v>4.222106522172421</v>
+        <v>2.377927335219819</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2371,13 +2371,13 @@
         <v>50</v>
       </c>
       <c r="B40">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2389,19 +2389,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
       <c r="L40">
-        <v>17.65262515262515</v>
+        <v>3.083464154892725</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2409,37 +2409,37 @@
         <v>51</v>
       </c>
       <c r="B41">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E41">
         <v>2</v>
       </c>
       <c r="F41">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="K41">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>5.849253639603964</v>
+        <v>3.964148654820451</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2447,37 +2447,37 @@
         <v>52</v>
       </c>
       <c r="B42">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>2</v>
+        <v>-9</v>
       </c>
       <c r="K42">
         <v>0</v>
       </c>
       <c r="L42">
-        <v>18.42883307169021</v>
+        <v>6.821690214547358</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2485,37 +2485,37 @@
         <v>53</v>
       </c>
       <c r="B43">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>-10</v>
+        <v>4</v>
       </c>
       <c r="K43">
         <v>0</v>
       </c>
       <c r="L43">
-        <v>5.097241444061566</v>
+        <v>3.311586446697356</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2523,37 +2523,37 @@
         <v>54</v>
       </c>
       <c r="B44">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44">
-        <v>-12</v>
+        <v>12</v>
       </c>
       <c r="K44">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L44">
-        <v>5.824525390926269</v>
+        <v>2.15770667116527</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2561,37 +2561,37 @@
         <v>55</v>
       </c>
       <c r="B45">
-        <v>1788</v>
+        <v>1907</v>
       </c>
       <c r="C45">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D45">
-        <v>940</v>
+        <v>763</v>
       </c>
       <c r="E45">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F45">
-        <v>380</v>
+        <v>344</v>
       </c>
       <c r="G45">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H45">
-        <v>560</v>
+        <v>419</v>
       </c>
       <c r="I45">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J45">
-        <v>-180</v>
+        <v>-75</v>
       </c>
       <c r="K45">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="L45">
-        <v>5.152541468344857</v>
+        <v>3.22953019799922</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2599,37 +2599,37 @@
         <v>56</v>
       </c>
       <c r="B46">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46">
-        <v>4.284966593679553</v>
+        <v>2.124075481381792</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2637,37 +2637,37 @@
         <v>57</v>
       </c>
       <c r="B47">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="C47">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D47">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E47">
         <v>6</v>
       </c>
       <c r="F47">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H47">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J47">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L47">
-        <v>6.943101798844476</v>
+        <v>6.017516918427664</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2675,37 +2675,37 @@
         <v>58</v>
       </c>
       <c r="B48">
-        <v>1470</v>
+        <v>1493</v>
       </c>
       <c r="C48">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D48">
-        <v>368</v>
+        <v>196</v>
       </c>
       <c r="E48">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F48">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="G48">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H48">
-        <v>307</v>
+        <v>159</v>
       </c>
       <c r="I48">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J48">
-        <v>-246</v>
+        <v>-122</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="L48">
-        <v>1.607966104667768</v>
+        <v>0.88803856857196</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2713,37 +2713,37 @@
         <v>59</v>
       </c>
       <c r="B49">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="C49">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D49">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="E49">
+        <v>5</v>
+      </c>
+      <c r="F49">
+        <v>54</v>
+      </c>
+      <c r="G49">
+        <v>4</v>
+      </c>
+      <c r="H49">
+        <v>57</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>-3</v>
+      </c>
+      <c r="K49">
         <v>3</v>
       </c>
-      <c r="F49">
-        <v>47</v>
-      </c>
-      <c r="G49">
-        <v>2</v>
-      </c>
-      <c r="H49">
-        <v>78</v>
-      </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-      <c r="J49">
-        <v>-31</v>
-      </c>
-      <c r="K49">
-        <v>1</v>
-      </c>
       <c r="L49">
-        <v>4.061783433429906</v>
+        <v>2.923718561731274</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2751,37 +2751,37 @@
         <v>60</v>
       </c>
       <c r="B50">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="C50">
         <v>15</v>
       </c>
       <c r="D50">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E50">
         <v>9</v>
       </c>
       <c r="F50">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G50">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H50">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J50">
-        <v>-16</v>
+        <v>-3</v>
       </c>
       <c r="K50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L50">
-        <v>3.22703713225094</v>
+        <v>2.640014893794791</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2801,25 +2801,25 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="K51">
         <v>0</v>
       </c>
       <c r="L51">
-        <v>7.738095238095238</v>
+        <v>4.166666666666666</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2833,13 +2833,13 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -2851,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K52">
         <v>0</v>
       </c>
       <c r="L52">
-        <v>3.199434817500787</v>
+        <v>2.564200486614283</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2865,7 +2865,7 @@
         <v>63</v>
       </c>
       <c r="B53">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -2877,25 +2877,25 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K53">
         <v>0</v>
       </c>
       <c r="L53">
-        <v>15.23809523809524</v>
+        <v>8.244047619047619</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2903,37 +2903,37 @@
         <v>64</v>
       </c>
       <c r="B54">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="K54">
         <v>0</v>
       </c>
       <c r="L54">
-        <v>6.721419336965554</v>
+        <v>6.204502043732471</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2947,13 +2947,13 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -2965,13 +2965,13 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K55">
         <v>0</v>
       </c>
       <c r="L55">
-        <v>13.09523809523809</v>
+        <v>5.952380952380952</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2979,22 +2979,22 @@
         <v>66</v>
       </c>
       <c r="B56">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56">
         <v>6</v>
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56">
-        <v>6.584404004516784</v>
+        <v>4.942451236787621</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3017,37 +3017,37 @@
         <v>67</v>
       </c>
       <c r="B57">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="C57">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E57">
         <v>4</v>
       </c>
       <c r="F57">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>29</v>
+      </c>
+      <c r="I57">
         <v>3</v>
       </c>
-      <c r="H57">
-        <v>37</v>
-      </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
       <c r="J57">
-        <v>-12</v>
+        <v>-2</v>
       </c>
       <c r="K57">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="L57">
-        <v>3.492844646951527</v>
+        <v>2.462477039277714</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3055,37 +3055,37 @@
         <v>68</v>
       </c>
       <c r="B58">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C58">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D58">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E58">
         <v>5</v>
       </c>
       <c r="F58">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H58">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I58">
+        <v>2</v>
+      </c>
+      <c r="J58">
         <v>3</v>
       </c>
-      <c r="J58">
-        <v>-4</v>
-      </c>
       <c r="K58">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L58">
-        <v>1.524583041294116</v>
+        <v>0.9557624095727466</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3093,37 +3093,37 @@
         <v>69</v>
       </c>
       <c r="B59">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="C59">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E59">
+        <v>4</v>
+      </c>
+      <c r="F59">
+        <v>68</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>63</v>
+      </c>
+      <c r="I59">
         <v>3</v>
       </c>
-      <c r="F59">
-        <v>52</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="H59">
-        <v>69</v>
-      </c>
-      <c r="I59">
-        <v>2</v>
-      </c>
       <c r="J59">
-        <v>-17</v>
+        <v>5</v>
       </c>
       <c r="K59">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="L59">
-        <v>4.612581240619813</v>
+        <v>4.356536006106609</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3137,31 +3137,31 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
+        <v>5</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
         <v>7</v>
       </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>6</v>
-      </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="K60">
         <v>0</v>
       </c>
       <c r="L60">
-        <v>11.82267137624281</v>
+        <v>7.179814233385662</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3169,37 +3169,37 @@
         <v>71</v>
       </c>
       <c r="B61">
-        <v>2543</v>
+        <v>2753</v>
       </c>
       <c r="C61">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="D61">
-        <v>1097</v>
+        <v>941</v>
       </c>
       <c r="E61">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F61">
-        <v>478</v>
+        <v>547</v>
       </c>
       <c r="G61">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H61">
-        <v>619</v>
+        <v>394</v>
       </c>
       <c r="I61">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J61">
-        <v>-141</v>
+        <v>153</v>
       </c>
       <c r="K61">
-        <v>-7</v>
+        <v>2</v>
       </c>
       <c r="L61">
-        <v>3.915841918514023</v>
+        <v>2.697979242976397</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3207,37 +3207,37 @@
         <v>72</v>
       </c>
       <c r="B62">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="K62">
         <v>0</v>
       </c>
       <c r="L62">
-        <v>13.01069756502693</v>
+        <v>16.63388597082404</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3245,37 +3245,37 @@
         <v>73</v>
       </c>
       <c r="B63">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
       <c r="F63">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G63">
         <v>1</v>
       </c>
       <c r="H63">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>-14</v>
+        <v>-3</v>
       </c>
       <c r="K63">
         <v>1</v>
       </c>
       <c r="L63">
-        <v>3.244938373808318</v>
+        <v>1.811257245854744</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3283,37 +3283,37 @@
         <v>74</v>
       </c>
       <c r="B64">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C64">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D64">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E64">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F64">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G64">
         <v>5</v>
       </c>
       <c r="H64">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J64">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="K64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L64">
-        <v>5.605292359326904</v>
+        <v>4.309245104785852</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3321,37 +3321,37 @@
         <v>75</v>
       </c>
       <c r="B65">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C65">
         <v>3</v>
       </c>
       <c r="D65">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65">
+        <v>20</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>17</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
         <v>3</v>
       </c>
-      <c r="F65">
-        <v>21</v>
-      </c>
-      <c r="G65">
-        <v>2</v>
-      </c>
-      <c r="H65">
-        <v>12</v>
-      </c>
-      <c r="I65">
-        <v>1</v>
-      </c>
-      <c r="J65">
-        <v>9</v>
-      </c>
       <c r="K65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65">
-        <v>8.873418987050785</v>
+        <v>6.996056931117301</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3359,37 +3359,37 @@
         <v>76</v>
       </c>
       <c r="B66">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66">
-        <v>-6</v>
+        <v>-17</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66">
-        <v>5.370632461399303</v>
+        <v>3.212612509709234</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3397,37 +3397,37 @@
         <v>77</v>
       </c>
       <c r="B67">
-        <v>1460</v>
+        <v>1620</v>
       </c>
       <c r="C67">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D67">
-        <v>779</v>
+        <v>805</v>
       </c>
       <c r="E67">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F67">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="G67">
         <v>10</v>
       </c>
       <c r="H67">
-        <v>378</v>
+        <v>423</v>
       </c>
       <c r="I67">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J67">
-        <v>23</v>
+        <v>-41</v>
       </c>
       <c r="K67">
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="L67">
-        <v>5.429301015463818</v>
+        <v>4.4532895578225</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3435,37 +3435,37 @@
         <v>78</v>
       </c>
       <c r="B68">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D68">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="E68">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F68">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H68">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="I68">
         <v>1</v>
       </c>
       <c r="J68">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L68">
-        <v>20.70015051622755</v>
+        <v>12.34820251950319</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3473,37 +3473,37 @@
         <v>79</v>
       </c>
       <c r="B69">
-        <v>1032</v>
+        <v>1185</v>
       </c>
       <c r="C69">
+        <v>16</v>
+      </c>
+      <c r="D69">
+        <v>822</v>
+      </c>
+      <c r="E69">
+        <v>16</v>
+      </c>
+      <c r="F69">
+        <v>429</v>
+      </c>
+      <c r="G69">
+        <v>7</v>
+      </c>
+      <c r="H69">
+        <v>393</v>
+      </c>
+      <c r="I69">
         <v>9</v>
       </c>
-      <c r="D69">
-        <v>756</v>
-      </c>
-      <c r="E69">
-        <v>9</v>
-      </c>
-      <c r="F69">
-        <v>425</v>
-      </c>
-      <c r="G69">
-        <v>3</v>
-      </c>
-      <c r="H69">
-        <v>331</v>
-      </c>
-      <c r="I69">
-        <v>6</v>
-      </c>
       <c r="J69">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="K69">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="L69">
-        <v>10.00596082204591</v>
+        <v>8.338480563991878</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3511,37 +3511,37 @@
         <v>80</v>
       </c>
       <c r="B70">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70">
-        <v>14.57135126777984</v>
+        <v>15.00739235087975</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3549,37 +3549,37 @@
         <v>81</v>
       </c>
       <c r="B71">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="D71">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
+        <v>3</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
         <v>6</v>
       </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>4</v>
-      </c>
       <c r="I71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="K71">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L71">
-        <v>3.639648363332575</v>
+        <v>2.889241362925575</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -3587,37 +3587,37 @@
         <v>82</v>
       </c>
       <c r="B72">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C72">
         <v>2</v>
       </c>
       <c r="D72">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E72">
         <v>1</v>
       </c>
       <c r="F72">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
       <c r="J72">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="K72">
         <v>-1</v>
       </c>
       <c r="L72">
-        <v>7.724365562196347</v>
+        <v>5.700589648668879</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3625,37 +3625,37 @@
         <v>83</v>
       </c>
       <c r="B73">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73">
+        <v>4</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
         <v>3</v>
       </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="K73">
         <v>0</v>
       </c>
       <c r="L73">
-        <v>6.190476190476191</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3663,7 +3663,7 @@
         <v>84</v>
       </c>
       <c r="B74">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -3693,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="L74">
-        <v>6.556122448979592</v>
+        <v>5.564058956916099</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3701,10 +3701,10 @@
         <v>85</v>
       </c>
       <c r="B75">
-        <v>436</v>
+        <v>488</v>
       </c>
       <c r="C75">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D75">
         <v>182</v>
@@ -3713,25 +3713,25 @@
         <v>7</v>
       </c>
       <c r="F75">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="G75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="I75">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J75">
-        <v>-20</v>
+        <v>26</v>
       </c>
       <c r="K75">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="L75">
-        <v>3.719859880591474</v>
+        <v>2.901105391455532</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3739,25 +3739,25 @@
         <v>86</v>
       </c>
       <c r="B76">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="C76">
         <v>13</v>
       </c>
       <c r="D76">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E76">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F76">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H76">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I76">
         <v>3</v>
@@ -3766,10 +3766,10 @@
         <v>-11</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L76">
-        <v>3.929026801533859</v>
+        <v>3.193364232562561</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3783,7 +3783,7 @@
         <v>1</v>
       </c>
       <c r="D77">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -3795,19 +3795,19 @@
         <v>1</v>
       </c>
       <c r="H77">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="K77">
         <v>1</v>
       </c>
       <c r="L77">
-        <v>2.455534661417012</v>
+        <v>1.806184012066363</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3815,37 +3815,37 @@
         <v>88</v>
       </c>
       <c r="B78">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
       <c r="D78">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
       <c r="H78">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78">
-        <v>7</v>
+        <v>-4</v>
       </c>
       <c r="K78">
         <v>0</v>
       </c>
       <c r="L78">
-        <v>7.730583507974518</v>
+        <v>6.086601486061292</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3853,19 +3853,19 @@
         <v>89</v>
       </c>
       <c r="B79">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="D79">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -3877,13 +3877,13 @@
         <v>0</v>
       </c>
       <c r="J79">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="K79">
         <v>0</v>
       </c>
       <c r="L79">
-        <v>7.199169141340747</v>
+        <v>6.226946919118524</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3891,37 +3891,37 @@
         <v>90</v>
       </c>
       <c r="B80">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
       <c r="D80">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E80">
         <v>1</v>
       </c>
       <c r="F80">
+        <v>7</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
         <v>6</v>
       </c>
-      <c r="G80">
-        <v>1</v>
-      </c>
-      <c r="H80">
-        <v>4</v>
-      </c>
       <c r="I80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K80">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L80">
-        <v>21.88208616780046</v>
+        <v>16.68728097299526</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3929,7 +3929,7 @@
         <v>91</v>
       </c>
       <c r="B81">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -3941,25 +3941,25 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="K81">
         <v>0</v>
       </c>
       <c r="L81">
-        <v>6.063182848897135</v>
+        <v>3.38134088134088</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3973,19 +3973,19 @@
         <v>1</v>
       </c>
       <c r="D82">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="L82">
-        <v>4.367735439164009</v>
+        <v>2.131083202511773</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4005,37 +4005,37 @@
         <v>93</v>
       </c>
       <c r="B83">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C83">
         <v>2</v>
       </c>
       <c r="D83">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E83">
         <v>1</v>
       </c>
       <c r="F83">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G83">
         <v>1</v>
       </c>
       <c r="H83">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83">
-        <v>-15</v>
+        <v>-11</v>
       </c>
       <c r="K83">
         <v>1</v>
       </c>
       <c r="L83">
-        <v>5.466523218624056</v>
+        <v>5.328678607095235</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4043,37 +4043,37 @@
         <v>94</v>
       </c>
       <c r="B84">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="D84">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K84">
         <v>0</v>
       </c>
       <c r="L84">
-        <v>5.825671177561935</v>
+        <v>4.66426644472863</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4081,37 +4081,37 @@
         <v>95</v>
       </c>
       <c r="B85">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D85">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F85">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H85">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L85">
-        <v>4.920181920927382</v>
+        <v>3.7757544529705</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4128,25 +4128,25 @@
         <v>3</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K86">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L86">
         <v>3.639455782312925</v>
@@ -4157,13 +4157,13 @@
         <v>97</v>
       </c>
       <c r="B87">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
       <c r="D87">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -4175,19 +4175,19 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K87">
         <v>0</v>
       </c>
       <c r="L87">
-        <v>3.122651858056756</v>
+        <v>3.187293099168587</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -4195,37 +4195,37 @@
         <v>98</v>
       </c>
       <c r="B88">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="C88">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D88">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E88">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F88">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H88">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J88">
-        <v>-9</v>
+        <v>16</v>
       </c>
       <c r="K88">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L88">
-        <v>1.476715439264112</v>
+        <v>1.210814682899583</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -4233,13 +4233,13 @@
         <v>99</v>
       </c>
       <c r="B89">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -4251,19 +4251,19 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89">
-        <v>-13</v>
+        <v>-10</v>
       </c>
       <c r="K89">
         <v>0</v>
       </c>
       <c r="L89">
-        <v>5.623191584326038</v>
+        <v>2.713027518699788</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -4271,19 +4271,19 @@
         <v>100</v>
       </c>
       <c r="B90">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -4295,13 +4295,13 @@
         <v>0</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90">
         <v>0</v>
       </c>
       <c r="L90">
-        <v>0.7936507936507941</v>
+        <v>2.222222222222222</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -4309,7 +4309,7 @@
         <v>101</v>
       </c>
       <c r="B91">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -4321,25 +4321,25 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91">
         <v>0</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K91">
         <v>0</v>
       </c>
       <c r="L91">
-        <v>10.71428571428571</v>
+        <v>5.952380952380952</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -4347,37 +4347,37 @@
         <v>102</v>
       </c>
       <c r="B92">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="C92">
         <v>4</v>
       </c>
       <c r="D92">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G92">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92">
-        <v>12</v>
+        <v>-10</v>
       </c>
       <c r="K92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L92">
-        <v>5.915864705005217</v>
+        <v>4.921219809927004</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -4385,37 +4385,37 @@
         <v>103</v>
       </c>
       <c r="B93">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I93">
         <v>0</v>
       </c>
       <c r="J93">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93">
-        <v>9.865586268005361</v>
+        <v>10.4358517305122</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -4423,37 +4423,37 @@
         <v>104</v>
       </c>
       <c r="B94">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C94">
         <v>4</v>
       </c>
       <c r="D94">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E94">
         <v>2</v>
       </c>
       <c r="F94">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H94">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="K94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L94">
-        <v>4.74961772096615</v>
+        <v>2.614636326992989</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -4499,13 +4499,13 @@
         <v>106</v>
       </c>
       <c r="B96">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C96">
         <v>3</v>
       </c>
       <c r="D96">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E96">
         <v>3</v>
@@ -4514,22 +4514,22 @@
         <v>20</v>
       </c>
       <c r="G96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H96">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96">
-        <v>-9</v>
+        <v>2</v>
       </c>
       <c r="K96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L96">
-        <v>8.367384785419294</v>
+        <v>5.245488597234217</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -4543,31 +4543,31 @@
         <v>1</v>
       </c>
       <c r="D97">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="F97">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K97">
         <v>0</v>
       </c>
       <c r="L97">
-        <v>6.220055314482559</v>
+        <v>4.275297174072246</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -4575,37 +4575,37 @@
         <v>108</v>
       </c>
       <c r="B98">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
       <c r="D98">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E98">
         <v>1</v>
       </c>
       <c r="F98">
+        <v>11</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
         <v>12</v>
       </c>
-      <c r="G98">
-        <v>0</v>
-      </c>
-      <c r="H98">
-        <v>16</v>
-      </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="K98">
         <v>-1</v>
       </c>
       <c r="L98">
-        <v>10.75572428151391</v>
+        <v>6.607854607328443</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -4613,37 +4613,37 @@
         <v>109</v>
       </c>
       <c r="B99">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99">
-        <v>-8</v>
+        <v>-17</v>
       </c>
       <c r="K99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L99">
-        <v>5.800637322459049</v>
+        <v>4.882692504780425</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -4651,13 +4651,13 @@
         <v>110</v>
       </c>
       <c r="B100">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C100">
         <v>0</v>
       </c>
       <c r="D100">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -4669,19 +4669,19 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K100">
         <v>0</v>
       </c>
       <c r="L100">
-        <v>7.264087933424316</v>
+        <v>3.709436509314766</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -4689,37 +4689,37 @@
         <v>111</v>
       </c>
       <c r="B101">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C101">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D101">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="E101">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F101">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="G101">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H101">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="I101">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J101">
-        <v>17</v>
+        <v>-51</v>
       </c>
       <c r="K101">
-        <v>-8</v>
+        <v>2</v>
       </c>
       <c r="L101">
-        <v>5.525566085786537</v>
+        <v>3.86368896063582</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -4727,37 +4727,37 @@
         <v>112</v>
       </c>
       <c r="B102">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102">
+        <v>9</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
         <v>7</v>
       </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-      <c r="F102">
-        <v>4</v>
-      </c>
       <c r="G102">
         <v>0</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I102">
         <v>0</v>
       </c>
       <c r="J102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K102">
         <v>0</v>
       </c>
       <c r="L102">
-        <v>3.480289551718122</v>
+        <v>3.408819668218165</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -4809,31 +4809,31 @@
         <v>0</v>
       </c>
       <c r="D104">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E104">
         <v>0</v>
       </c>
       <c r="F104">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
       <c r="H104">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="K104">
         <v>0</v>
       </c>
       <c r="L104">
-        <v>4.05322578376056</v>
+        <v>2.683714342820549</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -4841,37 +4841,37 @@
         <v>115</v>
       </c>
       <c r="B105">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C105">
         <v>0</v>
       </c>
       <c r="D105">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105">
         <v>0</v>
       </c>
       <c r="F105">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G105">
         <v>0</v>
       </c>
       <c r="H105">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
       <c r="J105">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K105">
         <v>0</v>
       </c>
       <c r="L105">
-        <v>4.026986791526817</v>
+        <v>3.463211281322738</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -4879,37 +4879,37 @@
         <v>116</v>
       </c>
       <c r="B106">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="C106">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D106">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F106">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H106">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="I106">
         <v>0</v>
       </c>
       <c r="J106">
-        <v>-22</v>
+        <v>-4</v>
       </c>
       <c r="K106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L106">
-        <v>4.02233271085668</v>
+        <v>3.43276818740375</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -4917,37 +4917,37 @@
         <v>117</v>
       </c>
       <c r="B107">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="C107">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D107">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E107">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F107">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G107">
         <v>3</v>
       </c>
       <c r="H107">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L107">
-        <v>5.242205175763373</v>
+        <v>3.573186111906097</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -4955,37 +4955,37 @@
         <v>118</v>
       </c>
       <c r="B108">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C108">
         <v>0</v>
       </c>
       <c r="D108">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E108">
         <v>0</v>
       </c>
       <c r="F108">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G108">
         <v>0</v>
       </c>
       <c r="H108">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="K108">
         <v>0</v>
       </c>
       <c r="L108">
-        <v>2.703718924269609</v>
+        <v>2.030818977004504</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -4999,31 +4999,31 @@
         <v>3</v>
       </c>
       <c r="D109">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E109">
         <v>2</v>
       </c>
       <c r="F109">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J109">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="K109">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L109">
-        <v>11.87441928431766</v>
+        <v>3.474365856968605</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5031,37 +5031,37 @@
         <v>120</v>
       </c>
       <c r="B110">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="C110">
         <v>7</v>
       </c>
       <c r="D110">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E110">
+        <v>3</v>
+      </c>
+      <c r="F110">
+        <v>31</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>26</v>
+      </c>
+      <c r="I110">
+        <v>3</v>
+      </c>
+      <c r="J110">
         <v>5</v>
-      </c>
-      <c r="F110">
-        <v>26</v>
-      </c>
-      <c r="G110">
-        <v>1</v>
-      </c>
-      <c r="H110">
-        <v>54</v>
-      </c>
-      <c r="I110">
-        <v>4</v>
-      </c>
-      <c r="J110">
-        <v>-28</v>
       </c>
       <c r="K110">
         <v>-3</v>
       </c>
       <c r="L110">
-        <v>4.794986133445073</v>
+        <v>2.747634272669532</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5069,37 +5069,37 @@
         <v>121</v>
       </c>
       <c r="B111">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C111">
         <v>2</v>
       </c>
       <c r="D111">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E111">
         <v>0</v>
       </c>
       <c r="F111">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
       <c r="H111">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I111">
         <v>0</v>
       </c>
       <c r="J111">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="K111">
         <v>0</v>
       </c>
       <c r="L111">
-        <v>3.585077146800747</v>
+        <v>4.461900577972004</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5107,37 +5107,37 @@
         <v>122</v>
       </c>
       <c r="B112">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C112">
         <v>2</v>
       </c>
       <c r="D112">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E112">
         <v>0</v>
       </c>
       <c r="F112">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G112">
         <v>0</v>
       </c>
       <c r="H112">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I112">
         <v>0</v>
       </c>
       <c r="J112">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="K112">
         <v>0</v>
       </c>
       <c r="L112">
-        <v>4.500168795281576</v>
+        <v>4.70984007638143</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5145,37 +5145,37 @@
         <v>123</v>
       </c>
       <c r="B113">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D113">
         <v>7</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="J113">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="K113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L113">
-        <v>1.049846737073755</v>
+        <v>0.8551360104481353</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5189,31 +5189,31 @@
         <v>2</v>
       </c>
       <c r="D114">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E114">
         <v>2</v>
       </c>
       <c r="F114">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J114">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="K114">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L114">
-        <v>6.740716340982856</v>
+        <v>3.304404845460834</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -5221,37 +5221,37 @@
         <v>125</v>
       </c>
       <c r="B115">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C115">
         <v>0</v>
       </c>
       <c r="D115">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E115">
         <v>0</v>
       </c>
       <c r="F115">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G115">
         <v>0</v>
       </c>
       <c r="H115">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I115">
         <v>0</v>
       </c>
       <c r="J115">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K115">
         <v>0</v>
       </c>
       <c r="L115">
-        <v>4.466637996194648</v>
+        <v>5.102868471821751</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -5259,37 +5259,37 @@
         <v>126</v>
       </c>
       <c r="B116">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G116">
         <v>0</v>
       </c>
       <c r="H116">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="K116">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L116">
-        <v>6.540987607164079</v>
+        <v>6.679876496052968</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -5297,37 +5297,37 @@
         <v>127</v>
       </c>
       <c r="B117">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C117">
+        <v>5</v>
+      </c>
+      <c r="D117">
+        <v>25</v>
+      </c>
+      <c r="E117">
+        <v>5</v>
+      </c>
+      <c r="F117">
+        <v>11</v>
+      </c>
+      <c r="G117">
         <v>3</v>
-      </c>
-      <c r="D117">
-        <v>26</v>
-      </c>
-      <c r="E117">
-        <v>3</v>
-      </c>
-      <c r="F117">
-        <v>12</v>
-      </c>
-      <c r="G117">
-        <v>2</v>
       </c>
       <c r="H117">
         <v>14</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J117">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="K117">
         <v>1</v>
       </c>
       <c r="L117">
-        <v>13.53793802650732</v>
+        <v>8.627909498967274</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -5335,19 +5335,19 @@
         <v>128</v>
       </c>
       <c r="B118">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C118">
         <v>1</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E118">
         <v>1</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -5359,13 +5359,13 @@
         <v>1</v>
       </c>
       <c r="J118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K118">
         <v>-1</v>
       </c>
       <c r="L118">
-        <v>0</v>
+        <v>4.166666666666666</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -5373,37 +5373,37 @@
         <v>129</v>
       </c>
       <c r="B119">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119">
+        <v>5</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <v>4</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
         <v>3</v>
       </c>
-      <c r="E119">
-        <v>0</v>
-      </c>
-      <c r="F119">
-        <v>2</v>
-      </c>
-      <c r="G119">
-        <v>0</v>
-      </c>
-      <c r="H119">
-        <v>1</v>
-      </c>
-      <c r="I119">
-        <v>0</v>
-      </c>
-      <c r="J119">
-        <v>1</v>
-      </c>
       <c r="K119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L119">
-        <v>3.10374149659864</v>
+        <v>4.135487528344671</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -5411,37 +5411,37 @@
         <v>130</v>
       </c>
       <c r="B120">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C120">
         <v>19</v>
       </c>
       <c r="D120">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E120">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F120">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G120">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H120">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="I120">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J120">
-        <v>-26</v>
+        <v>-5</v>
       </c>
       <c r="K120">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="L120">
-        <v>2.356214218504693</v>
+        <v>1.261487448753814</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -5449,37 +5449,37 @@
         <v>131</v>
       </c>
       <c r="B121">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="C121">
         <v>14</v>
       </c>
       <c r="D121">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E121">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F121">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G121">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H121">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="I121">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J121">
-        <v>-31</v>
+        <v>-44</v>
       </c>
       <c r="K121">
         <v>-3</v>
       </c>
       <c r="L121">
-        <v>6.961624054650033</v>
+        <v>6.315656771763535</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -5487,37 +5487,37 @@
         <v>132</v>
       </c>
       <c r="B122">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="C122">
         <v>6</v>
       </c>
       <c r="D122">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E122">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F122">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G122">
         <v>0</v>
       </c>
       <c r="H122">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I122">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J122">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="K122">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="L122">
-        <v>3.763960976279342</v>
+        <v>3.61341742216193</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -5537,25 +5537,25 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G123">
         <v>0</v>
       </c>
       <c r="H123">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I123">
         <v>0</v>
       </c>
       <c r="J123">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="K123">
         <v>0</v>
       </c>
       <c r="L123">
-        <v>2.131083202511773</v>
+        <v>1.535845107273678</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -5563,37 +5563,37 @@
         <v>134</v>
       </c>
       <c r="B124">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
       <c r="D124">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E124">
         <v>1</v>
       </c>
       <c r="F124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G124">
         <v>0</v>
       </c>
       <c r="H124">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I124">
         <v>1</v>
       </c>
       <c r="J124">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="K124">
         <v>-1</v>
       </c>
       <c r="L124">
-        <v>5.576169861884148</v>
+        <v>4.045557616986189</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -5601,37 +5601,37 @@
         <v>135</v>
       </c>
       <c r="B125">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C125">
         <v>2</v>
       </c>
       <c r="D125">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F125">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G125">
         <v>0</v>
       </c>
       <c r="H125">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J125">
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="K125">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="L125">
-        <v>4.440167288851501</v>
+        <v>3.400097046195053</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -5639,37 +5639,37 @@
         <v>136</v>
       </c>
       <c r="B126">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="C126">
         <v>8</v>
       </c>
       <c r="D126">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E126">
         <v>4</v>
       </c>
       <c r="F126">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H126">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I126">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J126">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K126">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="L126">
-        <v>7.435922468454817</v>
+        <v>5.816032884672603</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -5677,37 +5677,37 @@
         <v>137</v>
       </c>
       <c r="B127">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C127">
         <v>1</v>
       </c>
       <c r="D127">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E127">
         <v>1</v>
       </c>
       <c r="F127">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G127">
         <v>0</v>
       </c>
       <c r="H127">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I127">
         <v>1</v>
       </c>
       <c r="J127">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K127">
         <v>-1</v>
       </c>
       <c r="L127">
-        <v>9.114650706144699</v>
+        <v>8.321717094343816</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -5715,19 +5715,19 @@
         <v>138</v>
       </c>
       <c r="B128">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C128">
         <v>0</v>
       </c>
       <c r="D128">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E128">
         <v>0</v>
       </c>
       <c r="F128">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -5739,13 +5739,13 @@
         <v>0</v>
       </c>
       <c r="J128">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="K128">
         <v>0</v>
       </c>
       <c r="L128">
-        <v>7.055655595571561</v>
+        <v>6.753034547152195</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -5753,37 +5753,37 @@
         <v>139</v>
       </c>
       <c r="B129">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="C129">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D129">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="E129">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F129">
         <v>36</v>
       </c>
       <c r="G129">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H129">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="I129">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J129">
-        <v>-54</v>
+        <v>-29</v>
       </c>
       <c r="K129">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="L129">
-        <v>2.789174117432502</v>
+        <v>2.133113974410689</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -5791,7 +5791,7 @@
         <v>140</v>
       </c>
       <c r="B130">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -5803,25 +5803,25 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G130">
         <v>0</v>
       </c>
       <c r="H130">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I130">
         <v>0</v>
       </c>
       <c r="J130">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="K130">
         <v>0</v>
       </c>
       <c r="L130">
-        <v>6.583967932652143</v>
+        <v>3.987596050565975</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -5829,7 +5829,7 @@
         <v>141</v>
       </c>
       <c r="B131">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -5841,25 +5841,25 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G131">
         <v>0</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131">
         <v>0</v>
       </c>
       <c r="J131">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K131">
         <v>0</v>
       </c>
       <c r="L131">
-        <v>1.428571428571428</v>
+        <v>3.639455782312925</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -5867,7 +5867,7 @@
         <v>142</v>
       </c>
       <c r="B132">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C132">
         <v>2</v>
@@ -5879,25 +5879,25 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G132">
         <v>0</v>
       </c>
       <c r="H132">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I132">
         <v>0</v>
       </c>
       <c r="J132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K132">
         <v>0</v>
       </c>
       <c r="L132">
-        <v>6.417312845884275</v>
+        <v>5.243093158009126</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -5905,37 +5905,37 @@
         <v>143</v>
       </c>
       <c r="B133">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C133">
         <v>0</v>
       </c>
       <c r="D133">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E133">
         <v>0</v>
       </c>
       <c r="F133">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G133">
         <v>0</v>
       </c>
       <c r="H133">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I133">
         <v>0</v>
       </c>
       <c r="J133">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K133">
         <v>0</v>
       </c>
       <c r="L133">
-        <v>8.406441830811579</v>
+        <v>6.544414968784716</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -5943,37 +5943,37 @@
         <v>144</v>
       </c>
       <c r="B134">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C134">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D134">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="E134">
         <v>7</v>
       </c>
       <c r="F134">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G134">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H134">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I134">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J134">
-        <v>-21</v>
+        <v>-8</v>
       </c>
       <c r="K134">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="L134">
-        <v>3.064605769696325</v>
+        <v>1.561285745393285</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -5981,37 +5981,37 @@
         <v>145</v>
       </c>
       <c r="B135">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="C135">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D135">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E135">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F135">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G135">
         <v>3</v>
       </c>
       <c r="H135">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="I135">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J135">
-        <v>3</v>
+        <v>-24</v>
       </c>
       <c r="K135">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="L135">
-        <v>5.422293217643555</v>
+        <v>3.428402945353886</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6019,37 +6019,37 @@
         <v>146</v>
       </c>
       <c r="B136">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C136">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D136">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E136">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F136">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H136">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I136">
         <v>2</v>
       </c>
       <c r="J136">
-        <v>-5</v>
+        <v>-16</v>
       </c>
       <c r="K136">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L136">
-        <v>3.912445490835571</v>
+        <v>1.809359620101941</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6057,13 +6057,13 @@
         <v>147</v>
       </c>
       <c r="B137">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C137">
         <v>3</v>
       </c>
       <c r="D137">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E137">
         <v>2</v>
@@ -6072,22 +6072,22 @@
         <v>7</v>
       </c>
       <c r="G137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H137">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137">
         <v>-2</v>
       </c>
-      <c r="K137">
-        <v>0</v>
-      </c>
       <c r="L137">
-        <v>6.847539130868937</v>
+        <v>3.724643507973316</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -6095,25 +6095,25 @@
         <v>148</v>
       </c>
       <c r="B138">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D138">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I138">
         <v>0</v>
@@ -6122,10 +6122,10 @@
         <v>-1</v>
       </c>
       <c r="K138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L138">
-        <v>19.09388856757278</v>
+        <v>7.546269519953728</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -6133,13 +6133,13 @@
         <v>149</v>
       </c>
       <c r="B139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C139">
         <v>0</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -6151,19 +6151,19 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139">
         <v>0</v>
       </c>
       <c r="J139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K139">
         <v>0</v>
       </c>
       <c r="L139">
-        <v>7.142857142857143</v>
+        <v>10.71428571428571</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -6171,37 +6171,37 @@
         <v>150</v>
       </c>
       <c r="B140">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C140">
         <v>4</v>
       </c>
       <c r="D140">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G140">
         <v>0</v>
       </c>
       <c r="H140">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140">
-        <v>7</v>
+        <v>-6</v>
       </c>
       <c r="K140">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L140">
-        <v>5.244422889341469</v>
+        <v>4.912899159439329</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -6209,37 +6209,37 @@
         <v>151</v>
       </c>
       <c r="B141">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C141">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D141">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E141">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F141">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G141">
         <v>4</v>
       </c>
       <c r="H141">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J141">
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="K141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L141">
-        <v>3.848957481479014</v>
+        <v>2.671955678177615</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -6247,25 +6247,25 @@
         <v>152</v>
       </c>
       <c r="B142">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C142">
         <v>0</v>
       </c>
       <c r="D142">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E142">
         <v>0</v>
       </c>
       <c r="F142">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G142">
         <v>0</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142">
         <v>0</v>
@@ -6277,7 +6277,7 @@
         <v>0</v>
       </c>
       <c r="L142">
-        <v>11.73469387755102</v>
+        <v>7.270408163265306</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -6285,37 +6285,37 @@
         <v>153</v>
       </c>
       <c r="B143">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D143">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I143">
         <v>0</v>
       </c>
       <c r="J143">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L143">
-        <v>10.97770219198791</v>
+        <v>11.42413076341648</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -6323,37 +6323,37 @@
         <v>154</v>
       </c>
       <c r="B144">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C144">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D144">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="E144">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F144">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G144">
         <v>6</v>
       </c>
       <c r="H144">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="I144">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J144">
-        <v>-93</v>
+        <v>-24</v>
       </c>
       <c r="K144">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L144">
-        <v>11.92792417464569</v>
+        <v>2.974354024930307</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -6361,37 +6361,37 @@
         <v>155</v>
       </c>
       <c r="B145">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C145">
         <v>0</v>
       </c>
       <c r="D145">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E145">
         <v>0</v>
       </c>
       <c r="F145">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="G145">
         <v>0</v>
       </c>
       <c r="H145">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I145">
         <v>0</v>
       </c>
       <c r="J145">
-        <v>37</v>
+        <v>-4</v>
       </c>
       <c r="K145">
         <v>0</v>
       </c>
       <c r="L145">
-        <v>20.31344386607544</v>
+        <v>13.79782066764353</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -6399,37 +6399,37 @@
         <v>156</v>
       </c>
       <c r="B146">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="C146">
         <v>3</v>
       </c>
       <c r="D146">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G146">
         <v>0</v>
       </c>
       <c r="H146">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="K146">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L146">
-        <v>6.289950377762776</v>
+        <v>5.551145783481859</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -6437,37 +6437,37 @@
         <v>157</v>
       </c>
       <c r="B147">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C147">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E147">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F147">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G147">
+        <v>2</v>
+      </c>
+      <c r="H147">
+        <v>29</v>
+      </c>
+      <c r="I147">
         <v>3</v>
       </c>
-      <c r="H147">
-        <v>31</v>
-      </c>
-      <c r="I147">
-        <v>1</v>
-      </c>
       <c r="J147">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="K147">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="L147">
-        <v>4.922774833450005</v>
+        <v>3.853544922754748</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -6481,7 +6481,7 @@
         <v>0</v>
       </c>
       <c r="D148">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -6493,19 +6493,19 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I148">
         <v>0</v>
       </c>
       <c r="J148">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="K148">
         <v>0</v>
       </c>
       <c r="L148">
-        <v>4.234693877551019</v>
+        <v>3.214285714285714</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -6513,37 +6513,37 @@
         <v>159</v>
       </c>
       <c r="B149">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E149">
         <v>1</v>
       </c>
       <c r="F149">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G149">
         <v>0</v>
       </c>
       <c r="H149">
+        <v>6</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149">
         <v>4</v>
-      </c>
-      <c r="I149">
-        <v>1</v>
-      </c>
-      <c r="J149">
-        <v>5</v>
       </c>
       <c r="K149">
         <v>-1</v>
       </c>
       <c r="L149">
-        <v>3.28195665618026</v>
+        <v>4.105258950070788</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -6551,19 +6551,19 @@
         <v>160</v>
       </c>
       <c r="B150">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C150">
         <v>0</v>
       </c>
       <c r="D150">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E150">
         <v>0</v>
       </c>
       <c r="F150">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -6575,13 +6575,13 @@
         <v>0</v>
       </c>
       <c r="J150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K150">
         <v>0</v>
       </c>
       <c r="L150">
-        <v>7.825963718820863</v>
+        <v>5.261028653885797</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -6589,37 +6589,37 @@
         <v>161</v>
       </c>
       <c r="B151">
+        <v>10</v>
+      </c>
+      <c r="C151">
+        <v>2</v>
+      </c>
+      <c r="D151">
         <v>7</v>
       </c>
-      <c r="C151">
-        <v>0</v>
-      </c>
-      <c r="D151">
+      <c r="E151">
+        <v>2</v>
+      </c>
+      <c r="F151">
+        <v>3</v>
+      </c>
+      <c r="G151">
+        <v>2</v>
+      </c>
+      <c r="H151">
         <v>4</v>
       </c>
-      <c r="E151">
-        <v>0</v>
-      </c>
-      <c r="F151">
-        <v>2</v>
-      </c>
-      <c r="G151">
-        <v>0</v>
-      </c>
-      <c r="H151">
-        <v>2</v>
-      </c>
       <c r="I151">
         <v>0</v>
       </c>
       <c r="J151">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K151">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L151">
-        <v>6.785714285714286</v>
+        <v>9.591836734693876</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -6627,7 +6627,7 @@
         <v>162</v>
       </c>
       <c r="B152">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -6639,25 +6639,25 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G152">
         <v>0</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152">
         <v>0</v>
       </c>
       <c r="J152">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K152">
         <v>0</v>
       </c>
       <c r="L152">
-        <v>3.571428571428572</v>
+        <v>2.38095238095238</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -6665,37 +6665,37 @@
         <v>163</v>
       </c>
       <c r="B153">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C153">
         <v>0</v>
       </c>
       <c r="D153">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E153">
         <v>0</v>
       </c>
       <c r="F153">
+        <v>24</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
         <v>18</v>
       </c>
-      <c r="G153">
-        <v>0</v>
-      </c>
-      <c r="H153">
-        <v>9</v>
-      </c>
       <c r="I153">
         <v>0</v>
       </c>
       <c r="J153">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K153">
         <v>0</v>
       </c>
       <c r="L153">
-        <v>10.32628581735725</v>
+        <v>11.44840930790179</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -6703,37 +6703,37 @@
         <v>164</v>
       </c>
       <c r="B154">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C154">
         <v>4</v>
       </c>
       <c r="D154">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E154">
         <v>1</v>
       </c>
       <c r="F154">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H154">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="K154">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L154">
-        <v>7.314884780119627</v>
+        <v>6.431780413935371</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -6741,37 +6741,37 @@
         <v>165</v>
       </c>
       <c r="B155">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C155">
+        <v>8</v>
+      </c>
+      <c r="D155">
+        <v>61</v>
+      </c>
+      <c r="E155">
+        <v>8</v>
+      </c>
+      <c r="F155">
+        <v>44</v>
+      </c>
+      <c r="G155">
+        <v>2</v>
+      </c>
+      <c r="H155">
+        <v>17</v>
+      </c>
+      <c r="I155">
         <v>6</v>
       </c>
-      <c r="D155">
-        <v>63</v>
-      </c>
-      <c r="E155">
-        <v>6</v>
-      </c>
-      <c r="F155">
-        <v>26</v>
-      </c>
-      <c r="G155">
-        <v>4</v>
-      </c>
-      <c r="H155">
-        <v>37</v>
-      </c>
-      <c r="I155">
-        <v>2</v>
-      </c>
       <c r="J155">
-        <v>-11</v>
+        <v>27</v>
       </c>
       <c r="K155">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="L155">
-        <v>7.96728859007718</v>
+        <v>8.373284321703164</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -6779,7 +6779,7 @@
         <v>166</v>
       </c>
       <c r="B156">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -6791,25 +6791,25 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G156">
         <v>0</v>
       </c>
       <c r="H156">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I156">
         <v>0</v>
       </c>
       <c r="J156">
-        <v>4</v>
+        <v>-6</v>
       </c>
       <c r="K156">
         <v>0</v>
       </c>
       <c r="L156">
-        <v>10.40066345517474</v>
+        <v>7.932156289462601</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -6817,37 +6817,37 @@
         <v>167</v>
       </c>
       <c r="B157">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C157">
         <v>2</v>
       </c>
       <c r="D157">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E157">
         <v>1</v>
       </c>
       <c r="F157">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H157">
         <v>10</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K157">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L157">
-        <v>7.787362245490328</v>
+        <v>6.862473961731076</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -6855,37 +6855,37 @@
         <v>168</v>
       </c>
       <c r="B158">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C158">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D158">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E158">
+        <v>4</v>
+      </c>
+      <c r="F158">
+        <v>4</v>
+      </c>
+      <c r="G158">
+        <v>-1</v>
+      </c>
+      <c r="H158">
+        <v>41</v>
+      </c>
+      <c r="I158">
         <v>5</v>
       </c>
-      <c r="F158">
-        <v>21</v>
-      </c>
-      <c r="G158">
-        <v>5</v>
-      </c>
-      <c r="H158">
-        <v>39</v>
-      </c>
-      <c r="I158">
-        <v>0</v>
-      </c>
       <c r="J158">
-        <v>-18</v>
+        <v>-37</v>
       </c>
       <c r="K158">
-        <v>5</v>
+        <v>-6</v>
       </c>
       <c r="L158">
-        <v>3.536380131733706</v>
+        <v>1.910736304767954</v>
       </c>
     </row>
   </sheetData>
